--- a/resultats_anova.xlsx
+++ b/resultats_anova.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\Afc_ExpeMemoire_VersionPC\analyses\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C2717-875E-4BD6-AD3F-EEDB2AF3B1AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="660" windowWidth="16440" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,19 +110,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,21 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -492,19 +435,19 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4.7329999999999997</v>
+        <v>3.538</v>
       </c>
       <c r="E2">
-        <v>6.1289254578337483E-2</v>
+        <v>0.09265572571943928</v>
       </c>
       <c r="F2">
-        <v>6.1289254578337483E-2</v>
+        <v>0.09265572571943928</v>
       </c>
       <c r="G2">
-        <v>0.372</v>
+        <v>0.282</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -515,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.34899999999999998</v>
+        <v>0.352</v>
       </c>
       <c r="E3">
-        <v>0.84243003897901159</v>
+        <v>0.8411430450987532</v>
       </c>
       <c r="F3">
-        <v>0.76582590471101752</v>
+        <v>0.7340314265410733</v>
       </c>
       <c r="G3">
-        <v>4.2000000000000003E-2</v>
+        <v>0.038</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,16 +481,16 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1.36</v>
+        <v>0.966</v>
       </c>
       <c r="E4">
-        <v>0.26955227726132253</v>
+        <v>0.4379318187705474</v>
       </c>
       <c r="F4">
-        <v>0.27708093938612521</v>
+        <v>0.3513243789491188</v>
       </c>
       <c r="G4">
-        <v>0.14499999999999999</v>
+        <v>0.097</v>
       </c>
     </row>
   </sheetData>

--- a/resultats_anova.xlsx
+++ b/resultats_anova.xlsx
@@ -435,16 +435,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.538</v>
+        <v>2.227</v>
       </c>
       <c r="E2">
-        <v>0.09265572571943928</v>
+        <v>0.1697774457983646</v>
       </c>
       <c r="F2">
-        <v>0.09265572571943928</v>
+        <v>0.1697774457983646</v>
       </c>
       <c r="G2">
-        <v>0.282</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,16 +458,16 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.352</v>
+        <v>0.219</v>
       </c>
       <c r="E3">
-        <v>0.8411430450987532</v>
+        <v>0.925877693953818</v>
       </c>
       <c r="F3">
-        <v>0.7340314265410733</v>
+        <v>0.8937224407905546</v>
       </c>
       <c r="G3">
-        <v>0.038</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,16 +481,16 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.966</v>
+        <v>0.759</v>
       </c>
       <c r="E4">
-        <v>0.4379318187705474</v>
+        <v>0.558961336857562</v>
       </c>
       <c r="F4">
-        <v>0.3513243789491188</v>
+        <v>0.406348140471129</v>
       </c>
       <c r="G4">
-        <v>0.097</v>
+        <v>0.078</v>
       </c>
     </row>
   </sheetData>
